--- a/statepoints.xlsx
+++ b/statepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Argon_Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{716B9902-6108-400D-823C-6974A5419504}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE3D4F29-3445-4FA8-AF84-610EE2AC7354}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12360" xr2:uid="{1B2606A8-5DE2-40FF-9596-F3394129EDAE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>rho*</t>
   </si>
@@ -67,6 +67,42 @@
   </si>
   <si>
     <t>rcut/sigma</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1/mol</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>gm/mol</t>
+  </si>
+  <si>
+    <t>rho (kg/m3)</t>
+  </si>
+  <si>
+    <t>rho (1/m3)</t>
+  </si>
+  <si>
+    <t>rho (mol/m3)</t>
+  </si>
+  <si>
+    <t>rho (gm/m3)</t>
+  </si>
+  <si>
+    <t>P (bar)</t>
+  </si>
+  <si>
+    <t>REFPROP</t>
+  </si>
+  <si>
+    <t>Ideal gas</t>
+  </si>
+  <si>
+    <t>Rg</t>
   </si>
 </sst>
 </file>
@@ -102,8 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,15 +456,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BBDB2A-34C6-4FDA-9C8A-2A2AC24EC35E}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="T2" sqref="T2:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,6 +492,18 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
       <c r="M1" t="s">
         <v>2</v>
       </c>
@@ -457,8 +513,20 @@
       <c r="O1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -485,6 +553,22 @@
         <f>F2^(1/3)</f>
         <v>10.651461058706619</v>
       </c>
+      <c r="H2">
+        <f>D2*10^(27)</f>
+        <v>1.3240135533839001E+27</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2/$N$9</f>
+        <v>2198.6276210293922</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2*$N$10</f>
+        <v>87830.776204882161</v>
+      </c>
+      <c r="K2" s="2">
+        <f>J2/1000</f>
+        <v>87.830776204882156</v>
+      </c>
       <c r="M2" t="s">
         <v>3</v>
       </c>
@@ -494,8 +578,15 @@
       <c r="O2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>21.114999999999998</v>
+      </c>
+      <c r="T2">
+        <f>I2*C2*$N$12</f>
+        <v>26.23237539226357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -522,14 +613,37 @@
         <f t="shared" ref="G3:G19" si="4">F3^(1/3)</f>
         <v>8.4540702447945986</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H19" si="5">D3*10^(27)</f>
+        <v>2.6480271067678003E+27</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I19" si="6">H3/$N$9</f>
+        <v>4397.2552420587845</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J19" si="7">I3*$N$10</f>
+        <v>175661.55240976432</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K19" si="8">J3/1000</f>
+        <v>175.66155240976431</v>
+      </c>
       <c r="M3" t="s">
         <v>7</v>
       </c>
       <c r="N3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T19" si="9">I3*C3*$N$12</f>
+        <v>52.464750784527141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.15</v>
       </c>
@@ -556,8 +670,31 @@
         <f t="shared" si="4"/>
         <v>7.385310613360982</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>3.9720406601517001E+27</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="6"/>
+        <v>6595.8828630881762</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="7"/>
+        <v>263492.32861464645</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="8"/>
+        <v>263.49232861464645</v>
+      </c>
+      <c r="R4">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="9"/>
+        <v>78.697126176790704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -584,6 +721,22 @@
         <f t="shared" si="4"/>
         <v>6.71</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>5.2960542135356005E+27</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="6"/>
+        <v>8794.5104841175689</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="7"/>
+        <v>351323.10481952864</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="8"/>
+        <v>351.32310481952862</v>
+      </c>
       <c r="M5" t="s">
         <v>12</v>
       </c>
@@ -591,8 +744,15 @@
         <f>N1*3.5</f>
         <v>1.17425</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="9"/>
+        <v>104.92950156905428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -619,14 +779,37 @@
         <f t="shared" si="4"/>
         <v>6.2290122147083498</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>6.6200677669195015E+27</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="6"/>
+        <v>10993.138105146963</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="7"/>
+        <v>439153.88102441089</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="8"/>
+        <v>439.15388102441091</v>
+      </c>
       <c r="M6" t="s">
         <v>12</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>131.16187696131789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.3</v>
       </c>
@@ -653,6 +836,22 @@
         <f t="shared" si="4"/>
         <v>5.8617249183805651</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>7.9440813203034002E+27</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="6"/>
+        <v>13191.765726176352</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="7"/>
+        <v>526984.6572292929</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="8"/>
+        <v>526.98465722929291</v>
+      </c>
       <c r="M7" t="s">
         <v>13</v>
       </c>
@@ -660,8 +859,15 @@
         <f>N6/N1</f>
         <v>2.9806259314456036</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>157.39425235358141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.35</v>
       </c>
@@ -688,8 +894,31 @@
         <f t="shared" si="4"/>
         <v>5.5681360388874932</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>9.2680948736873001E+27</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="6"/>
+        <v>15390.393347205745</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="7"/>
+        <v>614815.43343417509</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="8"/>
+        <v>614.81543343417513</v>
+      </c>
+      <c r="R8">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>183.62662774584501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -716,8 +945,40 @@
         <f t="shared" si="4"/>
         <v>5.3257305293533097</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>1.0592108427071201E+28</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="6"/>
+        <v>17589.020968235138</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="7"/>
+        <v>702646.20963905728</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="8"/>
+        <v>702.64620963905725</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6.0220000000000003E+23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>209.85900313810856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.45</v>
       </c>
@@ -744,8 +1005,40 @@
         <f t="shared" si="4"/>
         <v>5.1206883783552373</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>1.1916121980455102E+28</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="6"/>
+        <v>19787.648589264532</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="7"/>
+        <v>790476.98584393959</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="8"/>
+        <v>790.47698584393959</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>39.948</v>
+      </c>
+      <c r="O10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>236.09137853037217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -772,8 +1065,31 @@
         <f t="shared" si="4"/>
         <v>4.9439702711753988</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>1.3240135533839003E+28</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="6"/>
+        <v>21986.276210293927</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="7"/>
+        <v>878307.76204882178</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="8"/>
+        <v>878.30776204882181</v>
+      </c>
+      <c r="R11">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>262.32375392263577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -800,8 +1116,38 @@
         <f t="shared" si="4"/>
         <v>4.7893688904292109</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>1.4564149087222904E+28</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="6"/>
+        <v>24184.903831323321</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="7"/>
+        <v>966138.53825370409</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="8"/>
+        <v>966.13853825370404</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <f>0.000083144598</f>
+        <v>8.3144597999999998E-5</v>
+      </c>
+      <c r="R12">
+        <v>60.451999999999998</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>288.55612931489935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.6</v>
       </c>
@@ -828,8 +1174,31 @@
         <f t="shared" si="4"/>
         <v>4.6524541508927584</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>1.58881626406068E+28</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="6"/>
+        <v>26383.531452352705</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="7"/>
+        <v>1053969.3144585858</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="8"/>
+        <v>1053.9693144585858</v>
+      </c>
+      <c r="R13">
+        <v>117.72</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>314.78850470716282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -856,8 +1225,31 @@
         <f t="shared" si="4"/>
         <v>4.5299638177121881</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>1.7212176193990704E+28</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="6"/>
+        <v>28582.159073382103</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="7"/>
+        <v>1141800.0906634682</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="8"/>
+        <v>1141.8000906634682</v>
+      </c>
+      <c r="R14">
+        <v>225.75</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="9"/>
+        <v>341.02088009942645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.7</v>
       </c>
@@ -884,8 +1276,31 @@
         <f t="shared" si="4"/>
         <v>4.4194325028160257</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>1.85361897473746E+28</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="6"/>
+        <v>30780.78669441149</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="7"/>
+        <v>1229630.8668683502</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="8"/>
+        <v>1229.6308668683503</v>
+      </c>
+      <c r="R15">
+        <v>407.88</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="9"/>
+        <v>367.25325549169003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.75</v>
       </c>
@@ -912,8 +1327,31 @@
         <f t="shared" si="4"/>
         <v>4.3189558471358502</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>1.9860203300758503E+28</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="6"/>
+        <v>32979.414315440888</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="7"/>
+        <v>1317461.6430732326</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="8"/>
+        <v>1317.4616430732326</v>
+      </c>
+      <c r="R16">
+        <v>693.27</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="9"/>
+        <v>393.4856308839536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.8</v>
       </c>
@@ -940,8 +1378,31 @@
         <f t="shared" si="4"/>
         <v>4.2270351223972993</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>2.1184216854142402E+28</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="6"/>
+        <v>35178.041936470276</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="7"/>
+        <v>1405292.4192781146</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="8"/>
+        <v>1405.2924192781145</v>
+      </c>
+      <c r="R17">
+        <v>1117.3</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>419.71800627621712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.85</v>
       </c>
@@ -968,8 +1429,31 @@
         <f t="shared" si="4"/>
         <v>4.1424716364806615</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>2.2508230407526301E+28</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="6"/>
+        <v>37376.66955749967</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="7"/>
+        <v>1493123.1954829968</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="8"/>
+        <v>1493.1231954829968</v>
+      </c>
+      <c r="R18">
+        <v>1721.8</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="9"/>
+        <v>445.9503816684807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.9</v>
       </c>
@@ -995,6 +1479,29 @@
       <c r="G19">
         <f t="shared" si="4"/>
         <v>4.0642930593012183</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>2.3832243960910204E+28</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="6"/>
+        <v>39575.297178529065</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="7"/>
+        <v>1580953.9716878792</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="8"/>
+        <v>1580.9539716878792</v>
+      </c>
+      <c r="R19">
+        <v>2554.8000000000002</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>472.18275706074434</v>
       </c>
     </row>
   </sheetData>

--- a/statepoints.xlsx
+++ b/statepoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Argon_Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE3D4F29-3445-4FA8-AF84-610EE2AC7354}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{611274E2-B918-4A7F-8895-41D8E1279A7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12360" xr2:uid="{1B2606A8-5DE2-40FF-9596-F3394129EDAE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="10905" xr2:uid="{1B2606A8-5DE2-40FF-9596-F3394129EDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>rho*</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Rg</t>
+  </si>
+  <si>
+    <t>Ulrich Deiters</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BBDB2A-34C6-4FDA-9C8A-2A2AC24EC35E}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +473,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +528,14 @@
       <c r="T1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -585,8 +594,11 @@
         <f>I2*C2*$N$12</f>
         <v>26.23237539226357</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V2" s="2">
+        <v>21.006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -642,8 +654,11 @@
         <f t="shared" ref="T3:T19" si="9">I3*C3*$N$12</f>
         <v>52.464750784527141</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V3" s="2">
+        <v>32.703400000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.15</v>
       </c>
@@ -693,8 +708,11 @@
         <f t="shared" si="9"/>
         <v>78.697126176790704</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V4" s="2">
+        <v>36.673999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -751,8 +769,11 @@
         <f t="shared" si="9"/>
         <v>104.92950156905428</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V5" s="2">
+        <v>34.838700000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -808,8 +829,11 @@
         <f t="shared" si="9"/>
         <v>131.16187696131789</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V6" s="2">
+        <v>29.232500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.3</v>
       </c>
@@ -866,8 +890,11 @@
         <f t="shared" si="9"/>
         <v>157.39425235358141</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V7" s="2">
+        <v>22.0928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.35</v>
       </c>
@@ -917,8 +944,11 @@
         <f t="shared" si="9"/>
         <v>183.62662774584501</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V8" s="2">
+        <v>13.2539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -977,8 +1007,11 @@
         <f t="shared" si="9"/>
         <v>209.85900313810856</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V9" s="2">
+        <v>3.32064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.45</v>
       </c>
@@ -1037,8 +1070,11 @@
         <f t="shared" si="9"/>
         <v>236.09137853037217</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V10" s="2">
+        <v>-7.1443300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -1088,8 +1124,11 @@
         <f t="shared" si="9"/>
         <v>262.32375392263577</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V11" s="2">
+        <v>-16.264800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -1146,8 +1185,11 @@
         <f t="shared" si="9"/>
         <v>288.55612931489935</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V12" s="2">
+        <v>-13.986499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.6</v>
       </c>
@@ -1197,8 +1239,11 @@
         <f t="shared" si="9"/>
         <v>314.78850470716282</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V13" s="2">
+        <v>13.540900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -1248,8 +1293,11 @@
         <f t="shared" si="9"/>
         <v>341.02088009942645</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V14" s="2">
+        <v>80.951400000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.7</v>
       </c>
@@ -1299,8 +1347,11 @@
         <f t="shared" si="9"/>
         <v>367.25325549169003</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V15" s="2">
+        <v>211.54900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.75</v>
       </c>
@@ -1350,8 +1401,11 @@
         <f t="shared" si="9"/>
         <v>393.4856308839536</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V16" s="2">
+        <v>430.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.8</v>
       </c>
@@ -1401,8 +1455,11 @@
         <f t="shared" si="9"/>
         <v>419.71800627621712</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V17" s="2">
+        <v>774.56100000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.85</v>
       </c>
@@ -1452,8 +1509,11 @@
         <f t="shared" si="9"/>
         <v>445.9503816684807</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V18" s="2">
+        <v>1280.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.9</v>
       </c>
@@ -1502,6 +1562,9 @@
       <c r="T19">
         <f t="shared" si="9"/>
         <v>472.18275706074434</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1992.34</v>
       </c>
     </row>
   </sheetData>
